--- a/Design/source/BOM.xlsx
+++ b/Design/source/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bindebende/Documents/embedded_projects/TypeCPD_To_UART/Design/source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bindebende/Documents/embedded_projects/PowerUART/Design/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>PD interface</t>
   </si>
@@ -47,18 +47,6 @@
     <t>Supply</t>
   </si>
   <si>
-    <t>Main</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>ALT1</t>
-  </si>
-  <si>
-    <t>ALT2</t>
-  </si>
-  <si>
     <t>Input capacitor 2.2uF</t>
   </si>
   <si>
@@ -128,18 +116,6 @@
     <t>CP2102N</t>
   </si>
   <si>
-    <t>TPS57140</t>
-  </si>
-  <si>
-    <t>Price (in low quantity)</t>
-  </si>
-  <si>
-    <t>Price (min 100)</t>
-  </si>
-  <si>
-    <t>extended price</t>
-  </si>
-  <si>
     <t>Function</t>
   </si>
   <si>
@@ -152,7 +128,28 @@
     <t>SUM (USD)</t>
   </si>
   <si>
-    <t>PCB</t>
+    <t>VAT+shipping</t>
+  </si>
+  <si>
+    <t>PCB (100*100, 3 design/ panel, 2layer, bilind via)</t>
+  </si>
+  <si>
+    <t>Margin(USD)</t>
+  </si>
+  <si>
+    <t>Margin(HUF)</t>
+  </si>
+  <si>
+    <t>Recomended selling price(USD)</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Price( min 100 pcs)</t>
+  </si>
+  <si>
+    <t>Extended price</t>
   </si>
 </sst>
 </file>
@@ -161,9 +158,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;Ft&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ [$USD]"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ [$USD]"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,6 +176,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -188,7 +193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -196,16 +201,185 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -484,405 +658,468 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:K26"/>
+  <dimension ref="B1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="119" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="7" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="32" customWidth="1"/>
+    <col min="3" max="3" width="43.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+    <row r="1" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4">
+        <v>308.36</v>
+      </c>
+      <c r="E3" s="5">
+        <f>D3*100</f>
+        <v>30836</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4">
+        <v>402.21</v>
+      </c>
+      <c r="E4" s="5">
+        <f>D4*100</f>
+        <v>40221</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4">
+        <v>389.31</v>
+      </c>
+      <c r="E5" s="5">
+        <f>D5*100</f>
+        <v>38931</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44.47</v>
+      </c>
+      <c r="E6" s="5">
+        <f>D6*100*3</f>
+        <v>13341</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4">
+        <v>40.22</v>
+      </c>
+      <c r="E7" s="5">
+        <f>D7*100*4</f>
+        <v>16088</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4">
+        <v>850.2</v>
+      </c>
+      <c r="E8" s="5">
+        <f>D8*100</f>
+        <v>85020</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4">
+        <v>20.93</v>
+      </c>
+      <c r="E9" s="5">
+        <f>D9*100</f>
+        <v>2093</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4">
+        <v>8.18</v>
+      </c>
+      <c r="E10" s="5">
+        <f>100*D10</f>
+        <v>818</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>68.67</v>
+      </c>
+      <c r="E11" s="5">
+        <f>D11*100</f>
+        <v>6867</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4">
+        <v>103.66</v>
+      </c>
+      <c r="E12" s="5">
+        <f>D12*100</f>
+        <v>10366</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
+        <v>52.32</v>
+      </c>
+      <c r="E13" s="5">
+        <f>D13*100</f>
+        <v>5232</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5.56</v>
+      </c>
+      <c r="E14" s="5">
+        <f>D14*100</f>
+        <v>556</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="E15" s="5">
+        <f>D15*100</f>
+        <v>98</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3.92</v>
+      </c>
+      <c r="E16" s="5">
+        <f>D16*100</f>
+        <v>392</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3.27</v>
+      </c>
+      <c r="E17" s="5">
+        <f>D17*100</f>
+        <v>327</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="E18" s="5">
+        <f>D18*100</f>
+        <v>98</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="E19" s="5">
+        <f xml:space="preserve"> D19*100</f>
+        <v>98</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="E20" s="5">
+        <f>D20*100</f>
+        <v>98</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11">
+        <v>348.77</v>
+      </c>
+      <c r="E21" s="12">
+        <v>19624</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18">
+        <f>E24/100</f>
+        <v>825.82740000000001</v>
+      </c>
+      <c r="E24" s="19">
+        <f xml:space="preserve"> 67329.74 + 15253</f>
+        <v>82582.740000000005</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4">
+        <f>SUM(D3:D24)</f>
+        <v>3479.7973999999999</v>
+      </c>
+      <c r="E25" s="5">
+        <f>SUM(E3:E24)</f>
+        <v>353686.74</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7">
+        <f xml:space="preserve"> 0.003514*D25</f>
+        <v>12.228008063600001</v>
+      </c>
+      <c r="E26" s="8">
+        <f xml:space="preserve"> 0.003514*E25</f>
+        <v>1242.85520436</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="7">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
+      <c r="E27" s="8">
+        <f>D27*100</f>
+        <v>3500</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7">
+        <f>D27-D26</f>
+        <v>22.771991936399999</v>
+      </c>
+      <c r="E28" s="8">
+        <f>E27-E26</f>
+        <v>2257.1447956399998</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2">
-        <v>454.53</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2">
-        <v>483.96</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2">
-        <v>500.31</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="2">
-        <f>108.56*3</f>
-        <v>325.68</v>
-      </c>
-      <c r="F8" s="2">
-        <f>44.47*3</f>
-        <v>133.41</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4447</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2">
-        <f>52.35*4</f>
-        <v>209.4</v>
-      </c>
-      <c r="F9" s="2">
-        <f xml:space="preserve"> 40.22*4</f>
-        <v>160.88</v>
-      </c>
-      <c r="G9" s="2">
-        <v>4022</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1157.58</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10">
-        <v>889.44</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2">
-        <v>59.84</v>
-      </c>
-      <c r="F11" s="2">
-        <v>17</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2">
-        <v>31.39</v>
-      </c>
-      <c r="F12" s="2">
-        <v>11.45</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2">
-        <v>108.56</v>
-      </c>
-      <c r="F13" s="2">
-        <v>68.67</v>
-      </c>
-      <c r="G13" s="2">
-        <v>6867</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="2">
-        <v>222.69</v>
-      </c>
-      <c r="F14" s="2">
-        <v>103.66</v>
-      </c>
-      <c r="G14" s="2">
-        <v>10366</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="2">
-        <v>114.12</v>
-      </c>
-      <c r="F15" s="2">
-        <v>52.32</v>
-      </c>
-      <c r="G15" s="2">
-        <v>5232</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="2">
-        <v>54.28</v>
-      </c>
-      <c r="F16" s="2">
-        <v>10.14</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="2">
-        <v>28.45</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="G17" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="2">
-        <v>28.45</v>
-      </c>
-      <c r="F18" s="2">
-        <v>6.21</v>
-      </c>
-      <c r="G18" s="2">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="2">
-        <v>28.45</v>
-      </c>
-      <c r="F19" s="2">
-        <v>17</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="2">
-        <v>171.35</v>
-      </c>
-      <c r="F20" s="2">
-        <v>46.11</v>
-      </c>
-      <c r="G20" s="2">
-        <v>4611</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="2">
-        <v>62.78</v>
-      </c>
-      <c r="F21" s="2">
-        <v>47.74</v>
-      </c>
-      <c r="G21" s="2">
-        <v>4774</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="2">
-        <v>74.23</v>
-      </c>
-      <c r="F22" s="2">
-        <v>49.38</v>
-      </c>
-      <c r="G22" s="2">
-        <v>4938</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="2">
-        <v>853</v>
-      </c>
-      <c r="F23" s="2">
-        <v>512.09</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="2">
-        <f>SUM(E5:E23)</f>
-        <v>4969.0499999999993</v>
-      </c>
-      <c r="F25" s="2">
-        <f>SUM(E5:E7,F8:F9,E10,F11:F23)</f>
-        <v>3833.42</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="3">
-        <f xml:space="preserve"> 0.003514*E25</f>
-        <v>17.461241699999999</v>
-      </c>
-      <c r="F26" s="3">
-        <f xml:space="preserve"> 0.003514*F25</f>
-        <v>13.470637880000002</v>
-      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11">
+        <f>284.414107*D28</f>
+        <v>6476.6757512024069</v>
+      </c>
+      <c r="E29" s="12">
+        <f>284.414107*E28</f>
+        <v>641963.82142164803</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="FUSB302BMPX: 454.53HUF"/>
-    <hyperlink ref="D6" r:id="rId2" display="CP2102N: 483.96 HUF"/>
-    <hyperlink ref="D7" r:id="rId3" display="usb type c con. female : 500.31 HUF"/>
-    <hyperlink ref="D8" r:id="rId4" display="ESD TVS: 108.56HUF x 3"/>
-    <hyperlink ref="D9" r:id="rId5" display="LED: 52.32 HUF x4"/>
-    <hyperlink ref="H10" r:id="rId6" display="TPS57140: 889.44 HUF"/>
-    <hyperlink ref="D11" r:id="rId7" display="Input capacitor 2.2uF: 59.84 HUF"/>
-    <hyperlink ref="D12" r:id="rId8" display="Input Capacitor 100nF: 31.39 HUF"/>
-    <hyperlink ref="D13" r:id="rId9" display="Inductor: 108.56 HUF"/>
-    <hyperlink ref="D14" r:id="rId10" display="Output capacitor: 222.69 HUF"/>
-    <hyperlink ref="D15" r:id="rId11" display="Diode: 114 HUF"/>
-    <hyperlink ref="D16" r:id="rId12" display="SS/TR cap 0.01uF: 54.28HUF"/>
-    <hyperlink ref="D17" r:id="rId13" display="CLK resistor 90.9k: 28.45 HUF"/>
-    <hyperlink ref="D18" r:id="rId14" display="COMP 6.8pF: 28.45 HUF"/>
-    <hyperlink ref="D19" r:id="rId15" display="COMP 2.7nF: 28.45 HUF"/>
-    <hyperlink ref="D20" r:id="rId16" display="COMP 76.8k: 171.35 HUF"/>
-    <hyperlink ref="D21" r:id="rId17" display="FB 52.5k: 62.78 HUF"/>
-    <hyperlink ref="D22" r:id="rId18" display="FB 10k: 74.23 HUF"/>
-    <hyperlink ref="D10" r:id="rId19" display="TPS57160QDRCRQ1: 1157.58HUF"/>
+    <hyperlink ref="C20" r:id="rId1"/>
+    <hyperlink ref="C19" r:id="rId2"/>
+    <hyperlink ref="C18" r:id="rId3"/>
+    <hyperlink ref="C17" r:id="rId4"/>
+    <hyperlink ref="C16" r:id="rId5"/>
+    <hyperlink ref="C14" r:id="rId6"/>
+    <hyperlink ref="C10" r:id="rId7"/>
+    <hyperlink ref="C3" r:id="rId8" display="FUSB302BMPX: 454.53HUF"/>
+    <hyperlink ref="C4" r:id="rId9" display="CP2102N: 483.96 HUF"/>
+    <hyperlink ref="C5" r:id="rId10" display="usb type c con. female : 500.31 HUF"/>
+    <hyperlink ref="C6" r:id="rId11" display="ESD TVS: 108.56HUF x 3"/>
+    <hyperlink ref="C7" r:id="rId12" display="LED: 52.32 HUF x4"/>
+    <hyperlink ref="C9" r:id="rId13"/>
+    <hyperlink ref="C11" r:id="rId14" display="Inductor: 108.56 HUF"/>
+    <hyperlink ref="C12" r:id="rId15" display="Output capacitor: 222.69 HUF"/>
+    <hyperlink ref="C13" r:id="rId16" display="Diode: 114 HUF"/>
+    <hyperlink ref="C15" r:id="rId17" display="CLK resistor 90.9k: 28.45 HUF"/>
+    <hyperlink ref="C8" r:id="rId18" display="TPS57160QDRCRQ1: 1157.58HUF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E10 E19" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>